--- a/data/outputs/OR_elsevier/6.xlsx
+++ b/data/outputs/OR_elsevier/6.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS30"/>
+  <dimension ref="A1:BU30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -925,6 +935,12 @@
           <t>2-s2.0-84950311346</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1144,6 +1160,12 @@
           <t>2-s2.0-84950322037</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1359,6 +1381,12 @@
           <t>2-s2.0-84950313150</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1574,6 +1602,12 @@
           <t>2-s2.0-84950319426</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1795,6 +1829,12 @@
           <t>2-s2.0-84950323621</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2010,6 +2050,12 @@
           <t>2-s2.0-84950308404</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2235,6 +2281,12 @@
           <t>2-s2.0-84950321573</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2449,6 +2501,12 @@
         <is>
           <t>2-s2.0-84950310484</t>
         </is>
+      </c>
+      <c r="BT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2661,6 +2719,12 @@
           <t>2-s2.0-84950313765</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2880,6 +2944,12 @@
           <t>2-s2.0-84945178283</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3103,6 +3173,12 @@
           <t>2-s2.0-84945176721</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3318,6 +3394,12 @@
           <t>2-s2.0-84945182405</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3529,6 +3611,12 @@
           <t>2-s2.0-84945177405</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3752,6 +3840,12 @@
           <t>2-s2.0-84945186155</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3967,6 +4061,12 @@
           <t>2-s2.0-84945178624</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4189,6 +4289,12 @@
         <is>
           <t>2-s2.0-84945192982</t>
         </is>
+      </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -4397,6 +4503,12 @@
           <t>2-s2.0-84930349605</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4608,6 +4720,12 @@
           <t>2-s2.0-84930370423</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4822,6 +4940,12 @@
         <is>
           <t>2-s2.0-84930368730</t>
         </is>
+      </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5030,6 +5154,12 @@
           <t>2-s2.0-84930332350</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5241,6 +5371,12 @@
           <t>2-s2.0-84930357883</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5456,6 +5592,12 @@
           <t>2-s2.0-84930351477</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5671,6 +5813,12 @@
           <t>2-s2.0-84930349263</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5886,6 +6034,12 @@
           <t>2-s2.0-84925175438</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6100,6 +6254,12 @@
         <is>
           <t>2-s2.0-84925091625</t>
         </is>
+      </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -6308,6 +6468,12 @@
           <t>2-s2.0-84925101826</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6523,6 +6689,12 @@
           <t>2-s2.0-84925130881</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6734,6 +6906,12 @@
           <t>2-s2.0-84925162066</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6949,6 +7127,12 @@
           <t>2-s2.0-84925045126</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
